--- a/Evaluation/eval003/sub0671/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub0671/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9381443298969072</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C2" t="n">
         <v>0.900990099009901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9191919191919191</v>
+        <v>0.914572864321608</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9223300970873787</v>
+        <v>0.9170731707317074</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.921453117329406</v>
+        <v>0.9162087912087913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9207920792079207</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9207610081396489</v>
+        <v>0.9158230175266577</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9214531173294059</v>
+        <v>0.9162087912087912</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9158415841584159</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9207610081396489</v>
+        <v>0.9158230175266576</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
